--- a/natmiOut/OldD7/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1068.35329477114</v>
+        <v>1111.404703666667</v>
       </c>
       <c r="H2">
-        <v>1068.35329477114</v>
+        <v>3334.214111</v>
       </c>
       <c r="I2">
-        <v>0.2186506514196686</v>
+        <v>0.2049713233760527</v>
       </c>
       <c r="J2">
-        <v>0.2186506514196686</v>
+        <v>0.2049713233760527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.16792001604263</v>
+        <v>0.185824</v>
       </c>
       <c r="N2">
-        <v>0.16792001604263</v>
+        <v>0.557472</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7926810887363958</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7926810887363958</v>
       </c>
       <c r="Q2">
-        <v>179.3979023971665</v>
+        <v>206.5256676541547</v>
       </c>
       <c r="R2">
-        <v>179.3979023971665</v>
+        <v>1858.731008887392</v>
       </c>
       <c r="S2">
-        <v>0.2186506514196686</v>
+        <v>0.1624768917734693</v>
       </c>
       <c r="T2">
-        <v>0.2186506514196686</v>
+        <v>0.1624768917734693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1148.78842641696</v>
+        <v>1111.404703666667</v>
       </c>
       <c r="H3">
-        <v>1148.78842641696</v>
+        <v>3334.214111</v>
       </c>
       <c r="I3">
-        <v>0.2351126158442299</v>
+        <v>0.2049713233760527</v>
       </c>
       <c r="J3">
-        <v>0.2351126158442299</v>
+        <v>0.2049713233760527</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.16792001604263</v>
+        <v>0.03181266666666666</v>
       </c>
       <c r="N3">
-        <v>0.16792001604263</v>
+        <v>0.095438</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1357052869862955</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1357052869862955</v>
       </c>
       <c r="Q3">
-        <v>192.9045709935236</v>
+        <v>35.35674736951311</v>
       </c>
       <c r="R3">
-        <v>192.9045709935236</v>
+        <v>318.210726325618</v>
       </c>
       <c r="S3">
-        <v>0.2351126158442299</v>
+        <v>0.02781569226270802</v>
       </c>
       <c r="T3">
-        <v>0.2351126158442299</v>
+        <v>0.02781569226270801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2504.1252397069</v>
+        <v>1111.404703666667</v>
       </c>
       <c r="H4">
-        <v>2504.1252397069</v>
+        <v>3334.214111</v>
       </c>
       <c r="I4">
-        <v>0.5124977079942808</v>
+        <v>0.2049713233760527</v>
       </c>
       <c r="J4">
-        <v>0.5124977079942808</v>
+        <v>0.2049713233760527</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.16792001604263</v>
+        <v>0.016788</v>
       </c>
       <c r="N4">
-        <v>0.16792001604263</v>
+        <v>0.050364</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.07161362427730872</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0716136242773087</v>
       </c>
       <c r="Q4">
-        <v>420.4927504243373</v>
+        <v>18.658262165156</v>
       </c>
       <c r="R4">
-        <v>420.4927504243373</v>
+        <v>167.924359486404</v>
       </c>
       <c r="S4">
-        <v>0.5124977079942808</v>
+        <v>0.01467873933987538</v>
       </c>
       <c r="T4">
-        <v>0.5124977079942808</v>
+        <v>0.01467873933987538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,548 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>164.852919537411</v>
+        <v>1149.586873333333</v>
       </c>
       <c r="H5">
-        <v>164.852919537411</v>
+        <v>3448.76062</v>
       </c>
       <c r="I5">
-        <v>0.03373902474182067</v>
+        <v>0.2120130875688133</v>
       </c>
       <c r="J5">
-        <v>0.03373902474182067</v>
+        <v>0.2120130875688133</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.16792001604263</v>
+        <v>0.185824</v>
       </c>
       <c r="N5">
-        <v>0.16792001604263</v>
+        <v>0.557472</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7926810887363958</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7926810887363958</v>
       </c>
       <c r="Q5">
-        <v>27.68210489339645</v>
+        <v>213.6208311502933</v>
       </c>
       <c r="R5">
-        <v>27.68210489339645</v>
+        <v>1922.58748035264</v>
       </c>
       <c r="S5">
-        <v>0.03373902474182067</v>
+        <v>0.1680587650804117</v>
       </c>
       <c r="T5">
-        <v>0.03373902474182067</v>
+        <v>0.1680587650804117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1149.586873333333</v>
+      </c>
+      <c r="H6">
+        <v>3448.76062</v>
+      </c>
+      <c r="I6">
+        <v>0.2120130875688133</v>
+      </c>
+      <c r="J6">
+        <v>0.2120130875688133</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.03181266666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.095438</v>
+      </c>
+      <c r="O6">
+        <v>0.1357052869862955</v>
+      </c>
+      <c r="P6">
+        <v>0.1357052869862955</v>
+      </c>
+      <c r="Q6">
+        <v>36.57142400572889</v>
+      </c>
+      <c r="R6">
+        <v>329.14281605156</v>
+      </c>
+      <c r="S6">
+        <v>0.02877129689337641</v>
+      </c>
+      <c r="T6">
+        <v>0.02877129689337641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1149.586873333333</v>
+      </c>
+      <c r="H7">
+        <v>3448.76062</v>
+      </c>
+      <c r="I7">
+        <v>0.2120130875688133</v>
+      </c>
+      <c r="J7">
+        <v>0.2120130875688133</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.016788</v>
+      </c>
+      <c r="N7">
+        <v>0.050364</v>
+      </c>
+      <c r="O7">
+        <v>0.07161362427730872</v>
+      </c>
+      <c r="P7">
+        <v>0.0716136242773087</v>
+      </c>
+      <c r="Q7">
+        <v>19.29926442952</v>
+      </c>
+      <c r="R7">
+        <v>173.69337986568</v>
+      </c>
+      <c r="S7">
+        <v>0.01518302559502515</v>
+      </c>
+      <c r="T7">
+        <v>0.01518302559502514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2939.417277333333</v>
+      </c>
+      <c r="H8">
+        <v>8818.251832</v>
+      </c>
+      <c r="I8">
+        <v>0.5421033825947782</v>
+      </c>
+      <c r="J8">
+        <v>0.5421033825947781</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.185824</v>
+      </c>
+      <c r="N8">
+        <v>0.557472</v>
+      </c>
+      <c r="O8">
+        <v>0.7926810887363958</v>
+      </c>
+      <c r="P8">
+        <v>0.7926810887363958</v>
+      </c>
+      <c r="Q8">
+        <v>546.2142761431893</v>
+      </c>
+      <c r="R8">
+        <v>4915.928485288704</v>
+      </c>
+      <c r="S8">
+        <v>0.4297150995229116</v>
+      </c>
+      <c r="T8">
+        <v>0.4297150995229116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2939.417277333333</v>
+      </c>
+      <c r="H9">
+        <v>8818.251832</v>
+      </c>
+      <c r="I9">
+        <v>0.5421033825947782</v>
+      </c>
+      <c r="J9">
+        <v>0.5421033825947781</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03181266666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.095438</v>
+      </c>
+      <c r="O9">
+        <v>0.1357052869862955</v>
+      </c>
+      <c r="P9">
+        <v>0.1357052869862955</v>
+      </c>
+      <c r="Q9">
+        <v>93.51070203804622</v>
+      </c>
+      <c r="R9">
+        <v>841.596318342416</v>
+      </c>
+      <c r="S9">
+        <v>0.07356629511126593</v>
+      </c>
+      <c r="T9">
+        <v>0.07356629511126592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2939.417277333333</v>
+      </c>
+      <c r="H10">
+        <v>8818.251832</v>
+      </c>
+      <c r="I10">
+        <v>0.5421033825947782</v>
+      </c>
+      <c r="J10">
+        <v>0.5421033825947781</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.016788</v>
+      </c>
+      <c r="N10">
+        <v>0.050364</v>
+      </c>
+      <c r="O10">
+        <v>0.07161362427730872</v>
+      </c>
+      <c r="P10">
+        <v>0.0716136242773087</v>
+      </c>
+      <c r="Q10">
+        <v>49.34693725187201</v>
+      </c>
+      <c r="R10">
+        <v>444.122435266848</v>
+      </c>
+      <c r="S10">
+        <v>0.03882198796060059</v>
+      </c>
+      <c r="T10">
+        <v>0.03882198796060057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>221.836001</v>
+      </c>
+      <c r="H11">
+        <v>665.508003</v>
+      </c>
+      <c r="I11">
+        <v>0.04091220646035591</v>
+      </c>
+      <c r="J11">
+        <v>0.04091220646035591</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.185824</v>
+      </c>
+      <c r="N11">
+        <v>0.557472</v>
+      </c>
+      <c r="O11">
+        <v>0.7926810887363958</v>
+      </c>
+      <c r="P11">
+        <v>0.7926810887363958</v>
+      </c>
+      <c r="Q11">
+        <v>41.222453049824</v>
+      </c>
+      <c r="R11">
+        <v>371.002077448416</v>
+      </c>
+      <c r="S11">
+        <v>0.03243033235960313</v>
+      </c>
+      <c r="T11">
+        <v>0.03243033235960313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>221.836001</v>
+      </c>
+      <c r="H12">
+        <v>665.508003</v>
+      </c>
+      <c r="I12">
+        <v>0.04091220646035591</v>
+      </c>
+      <c r="J12">
+        <v>0.04091220646035591</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03181266666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.095438</v>
+      </c>
+      <c r="O12">
+        <v>0.1357052869862955</v>
+      </c>
+      <c r="P12">
+        <v>0.1357052869862955</v>
+      </c>
+      <c r="Q12">
+        <v>7.057194754479333</v>
+      </c>
+      <c r="R12">
+        <v>63.514752790314</v>
+      </c>
+      <c r="S12">
+        <v>0.005552002718945173</v>
+      </c>
+      <c r="T12">
+        <v>0.005552002718945173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>221.836001</v>
+      </c>
+      <c r="H13">
+        <v>665.508003</v>
+      </c>
+      <c r="I13">
+        <v>0.04091220646035591</v>
+      </c>
+      <c r="J13">
+        <v>0.04091220646035591</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.016788</v>
+      </c>
+      <c r="N13">
+        <v>0.050364</v>
+      </c>
+      <c r="O13">
+        <v>0.07161362427730872</v>
+      </c>
+      <c r="P13">
+        <v>0.0716136242773087</v>
+      </c>
+      <c r="Q13">
+        <v>3.724182784788</v>
+      </c>
+      <c r="R13">
+        <v>33.517645063092</v>
+      </c>
+      <c r="S13">
+        <v>0.002929871381807611</v>
+      </c>
+      <c r="T13">
+        <v>0.00292987138180761</v>
       </c>
     </row>
   </sheetData>
